--- a/Dados/Questao1.xlsx
+++ b/Dados/Questao1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edevaldogaudencio/Documents/Pessoal/Educação/FGV/Mestrado Profissional em Economia/2_2020/Estatística/Listas de Exercícios/Lista 1/dados/MestradoEstatisticaLista1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edevaldogaudencio/Documents/Pessoal/Educação/FGV/Mestrado Profissional em Economia/2_2020/Estatística/Listas de Exercícios/Lista 1/dados/MestradoEstatisticaLista1/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D87BE-3FD9-F14F-ADF9-EE7049E4EAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C8BE76-2C88-7D48-A2D1-33CF07AC5337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="26700" windowHeight="17540" xr2:uid="{09FA6E29-2227-1E4A-9500-4489B590F65C}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
